--- a/logistik/web/uploads/UploadSn.xlsx
+++ b/logistik/web/uploads/UploadSn.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>SERIAL_NUMBER</t>
   </si>
@@ -44,7 +44,22 @@
     <t>Good</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>123asd124</t>
+  </si>
+  <si>
+    <t>abc124</t>
+  </si>
+  <si>
+    <t>123asd125</t>
+  </si>
+  <si>
+    <t>123asd126</t>
+  </si>
+  <si>
+    <t>abc125</t>
+  </si>
+  <si>
+    <t>abc126</t>
   </si>
 </sst>
 </file>
@@ -362,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,10 +417,32 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
